--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -2846,6 +2846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4542,7 +4543,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5068,6 +5070,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -194,24 +194,48 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
     <t>BERNABE</t>
   </si>
   <si>
     <t>CABRERA</t>
   </si>
   <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALAN</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -221,9 +245,15 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -236,27 +266,51 @@
     <t>TORRES</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>NICIO</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
+    <t>CUAQUEHUA</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>CONSTANTINO</t>
+  </si>
+  <si>
     <t>VILLANUEVA</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>DAMIAN</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
     <t>DEL CAMPO</t>
   </si>
   <si>
@@ -275,30 +329,60 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
     <t>LORENZO</t>
   </si>
   <si>
     <t>TEQUIHUATLE</t>
   </si>
   <si>
+    <t>DIEGO APOLINAR</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>CRISTIAN MAURICIO</t>
+  </si>
+  <si>
     <t>EMANUEL</t>
   </si>
   <si>
     <t>CARLOS ADRIAN</t>
   </si>
   <si>
+    <t>RIGOBERTO</t>
+  </si>
+  <si>
     <t>LUIS ANGEL</t>
   </si>
   <si>
+    <t>MARIA TERESA</t>
+  </si>
+  <si>
     <t>JOSUE</t>
   </si>
   <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
     <t>EDDER GUSTAVO</t>
   </si>
   <si>
     <t>BRAULIO</t>
   </si>
   <si>
+    <t>IRAIS</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
     <t>RICARDO MOISES</t>
   </si>
   <si>
@@ -308,21 +392,27 @@
     <t>ANGEL GABRIEL</t>
   </si>
   <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
     <t>ALFONSO</t>
   </si>
   <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>OMAR</t>
   </si>
   <si>
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
     <t>JOSE ARTURO</t>
   </si>
   <si>
+    <t>YAHIR ALEJANDRO</t>
+  </si>
+  <si>
     <t>JULIAN ALDAHIR</t>
   </si>
   <si>
@@ -330,96 +420,6 @@
   </si>
   <si>
     <t>ISAI</t>
-  </si>
-  <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALAN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CUAQUEHUA</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>CONSTANTINO</t>
-  </si>
-  <si>
-    <t>DAMIAN</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>DIEGO APOLINAR</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>CRISTIAN MAURICIO</t>
-  </si>
-  <si>
-    <t>RIGOBERTO</t>
-  </si>
-  <si>
-    <t>MARIA TERESA</t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
-    <t>IRAIS</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>YAHIR ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -974,7 +974,7 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1033,7 +1033,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1074,7 +1074,7 @@
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1092,7 +1092,7 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1210,7 +1210,7 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1269,7 +1269,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1369,7 +1369,7 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1446,7 +1446,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1505,7 +1505,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1564,7 +1564,7 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1741,7 +1741,7 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1800,7 +1800,7 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1900,7 +1900,7 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -1918,7 +1918,7 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -1977,7 +1977,7 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2036,7 +2036,7 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2195,7 +2195,7 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2508,7 +2508,7 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2567,7 +2567,7 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2812,25 +2812,25 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>62.07</v>
+        <v>65.52</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>37.93</v>
+        <v>20.69</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2872,16 +2872,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920006</v>
+        <v>18330051920002</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -2892,96 +2892,96 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920006</v>
+        <v>18330051920002</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920006</v>
+        <v>18330051920002</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920006</v>
+        <v>18330051920002</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920006</v>
+        <v>18330051920002</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920009</v>
+        <v>18330051920003</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2992,16 +2992,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920009</v>
+        <v>18330051920003</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3012,116 +3012,116 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920009</v>
+        <v>18330051920003</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920009</v>
+        <v>18330051920003</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920009</v>
+        <v>18330051920003</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920009</v>
+        <v>18330051920004</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920014</v>
+        <v>18330051920004</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920014</v>
+        <v>18330051920004</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -3132,16 +3132,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920014</v>
+        <v>18330051920004</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -3152,16 +3152,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920016</v>
+        <v>18330051920004</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -3172,19 +3172,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920016</v>
+        <v>18330051920006</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
@@ -3192,96 +3192,96 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920016</v>
+        <v>18330051920006</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920016</v>
+        <v>18330051920006</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920016</v>
+        <v>18330051920006</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920016</v>
+        <v>18330051920006</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -3292,139 +3292,139 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>17330051920278</v>
+        <v>18330051920009</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920023</v>
+        <v>18330051920010</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920023</v>
+        <v>18330051920010</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -3432,16 +3432,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920023</v>
+        <v>18330051920010</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -3452,99 +3452,99 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920023</v>
+        <v>18330051920010</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920023</v>
+        <v>18330051920010</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>17330051920418</v>
+        <v>18330051920014</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>17330051920418</v>
+        <v>18330051920014</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>17330051920418</v>
+        <v>18330051920014</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3552,16 +3552,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>17330051920418</v>
+        <v>18330051920014</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -3572,159 +3572,159 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>17330051920418</v>
+        <v>18330051920014</v>
       </c>
       <c r="B37" t="s">
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>17330051920418</v>
+        <v>18330051920015</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>16330051920566</v>
+        <v>18330051920015</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>16330051920566</v>
+        <v>18330051920015</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>16330051920566</v>
+        <v>18330051920015</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>16330051920566</v>
+        <v>18330051920015</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>16330051920566</v>
+        <v>18330051920016</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>16330051920566</v>
+        <v>18330051920016</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
         <v>52</v>
@@ -3732,156 +3732,156 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920026</v>
+        <v>18330051920016</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920026</v>
+        <v>18330051920016</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920026</v>
+        <v>18330051920016</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>17330051920160</v>
+        <v>18330051920016</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>17330051920160</v>
+        <v>18330051920018</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>17330051920483</v>
+        <v>18330051920018</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>17330051920483</v>
+        <v>18330051920018</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>17330051920483</v>
+        <v>18330051920018</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -3892,76 +3892,76 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>17330051920483</v>
+        <v>18330051920018</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>17330051920483</v>
+        <v>18330051920019</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>17330051920483</v>
+        <v>18330051920019</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920028</v>
+        <v>18330051920019</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -3972,79 +3972,79 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920028</v>
+        <v>18330051920019</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920028</v>
+        <v>18330051920019</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920028</v>
+        <v>17330051920278</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920037</v>
+        <v>17330051920278</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
         <v>52</v>
@@ -4052,99 +4052,99 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920037</v>
+        <v>17330051920278</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920037</v>
+        <v>17330051920278</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920037</v>
+        <v>17330051920278</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920037</v>
+        <v>17330051920278</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
         <v>52</v>
@@ -4152,116 +4152,116 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18330051920030</v>
+        <v>18330051920038</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18330051920032</v>
+        <v>18330051920038</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -4272,39 +4272,39 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920032</v>
+        <v>18330051920038</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>18330051920032</v>
+        <v>18330051920038</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
         <v>52</v>
@@ -4312,16 +4312,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>18330051920032</v>
+        <v>18330051920038</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -4332,116 +4332,116 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>18330051920032</v>
+        <v>18330051920024</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>18330051920032</v>
+        <v>18330051920024</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18330051920036</v>
+        <v>18330051920024</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>18330051920036</v>
+        <v>18330051920024</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>18330051920036</v>
+        <v>18330051920024</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>18330051920034</v>
+        <v>17330051920418</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -4452,16 +4452,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>18330051920034</v>
+        <v>17330051920418</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -4472,19 +4472,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18330051920034</v>
+        <v>17330051920418</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
         <v>52</v>
@@ -4492,42 +4492,1482 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>18330051920034</v>
+        <v>17330051920418</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>18330051920034</v>
+        <v>17330051920418</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>17330051920418</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>16330051920566</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>16330051920566</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>16330051920566</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>16330051920566</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>16330051920566</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920026</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920026</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920026</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920026</v>
+      </c>
+      <c r="B94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920026</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920027</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920027</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920027</v>
+      </c>
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920027</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920027</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>17330051920160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>17330051920160</v>
+      </c>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>17330051920160</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>17330051920160</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>17330051920160</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>17330051920160</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920017</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920017</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920017</v>
+      </c>
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920017</v>
+      </c>
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920017</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>17330051920483</v>
+      </c>
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>17330051920483</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>17330051920483</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>17330051920483</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>17330051920483</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>17330051920483</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920028</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920028</v>
+      </c>
+      <c r="B119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920028</v>
+      </c>
+      <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>18330051920028</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>18330051920028</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>18330051920028</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>18330051920037</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>18330051920037</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>18330051920037</v>
+      </c>
+      <c r="B126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>18330051920037</v>
+      </c>
+      <c r="B127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>18330051920037</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>18330051920037</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>18330051920030</v>
+      </c>
+      <c r="B130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>18330051920030</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>18330051920030</v>
+      </c>
+      <c r="B132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" t="s">
+        <v>129</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>18330051920030</v>
+      </c>
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" t="s">
+        <v>129</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>18330051920030</v>
+      </c>
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>18330051920030</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>18330051920451</v>
+      </c>
+      <c r="B136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>18330051920451</v>
+      </c>
+      <c r="B137" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" t="s">
+        <v>130</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>18330051920451</v>
+      </c>
+      <c r="B138" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>18330051920451</v>
+      </c>
+      <c r="B139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" t="s">
+        <v>130</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>18330051920451</v>
+      </c>
+      <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" t="s">
+        <v>130</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>18330051920032</v>
+      </c>
+      <c r="B141" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>18330051920032</v>
+      </c>
+      <c r="B142" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>131</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>18330051920032</v>
+      </c>
+      <c r="B143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>131</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>18330051920032</v>
+      </c>
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>18330051920032</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>18330051920032</v>
+      </c>
+      <c r="B146" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>18330051920036</v>
+      </c>
+      <c r="B147" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D147" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>18330051920036</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>18330051920036</v>
+      </c>
+      <c r="B149" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>18330051920036</v>
+      </c>
+      <c r="B150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>18330051920036</v>
+      </c>
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>18330051920034</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>105</v>
+      </c>
+      <c r="D152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>18330051920034</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>105</v>
+      </c>
+      <c r="D153" t="s">
+        <v>133</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>18330051920034</v>
+      </c>
+      <c r="B154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" t="s">
+        <v>105</v>
+      </c>
+      <c r="D154" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>18330051920034</v>
+      </c>
+      <c r="B155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" t="s">
+        <v>105</v>
+      </c>
+      <c r="D155" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>18330051920034</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4569,13 +6009,13 @@
         <v>18330051920009</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4583,16 +6023,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920016</v>
+        <v>17330051920418</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4600,16 +6040,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>17330051920278</v>
+        <v>18330051920030</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -4617,16 +6057,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>17330051920418</v>
+        <v>18330051920032</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -4634,84 +6074,84 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>16330051920566</v>
+        <v>18330051920016</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>17330051920483</v>
+        <v>17330051920278</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920030</v>
+        <v>18330051920023</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920032</v>
+        <v>16330051920566</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920006</v>
+        <v>17330051920483</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -4719,16 +6159,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920023</v>
+        <v>18330051920037</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4736,16 +6176,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920037</v>
+        <v>18330051920034</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -4753,19 +6193,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920034</v>
+        <v>18330051920006</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4773,13 +6213,13 @@
         <v>18330051920028</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -4790,13 +6230,13 @@
         <v>18330051920014</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -4807,13 +6247,13 @@
         <v>18330051920026</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -4824,13 +6264,13 @@
         <v>18330051920036</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -4841,13 +6281,13 @@
         <v>17330051920160</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4858,13 +6298,13 @@
         <v>18330051920002</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4875,13 +6315,13 @@
         <v>18330051920003</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4892,13 +6332,13 @@
         <v>18330051920004</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4909,13 +6349,13 @@
         <v>18330051920010</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4926,13 +6366,13 @@
         <v>18330051920015</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4943,13 +6383,13 @@
         <v>18330051920018</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4960,13 +6400,13 @@
         <v>18330051920019</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4977,13 +6417,13 @@
         <v>18330051920038</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4994,13 +6434,13 @@
         <v>18330051920024</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5011,13 +6451,13 @@
         <v>18330051920027</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5028,13 +6468,13 @@
         <v>18330051920017</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5045,13 +6485,13 @@
         <v>18330051920451</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5064,7 +6504,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5097,52 +6537,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>17330051920160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>17330051920160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -167,16 +167,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Bautista Sarao Eutiquio</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
     <t>Duran Amezcua Maria Angelica</t>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1018,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1133,10 +1133,10 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1236,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1354,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1431,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1590,7 +1590,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1649,7 +1649,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1667,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1826,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -1844,7 +1844,7 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1885,7 +1885,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1944,7 +1944,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2021,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2062,7 +2062,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2095,7 +2095,7 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2121,7 +2121,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2136,10 +2136,10 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -2198,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2213,7 +2213,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2239,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -2254,10 +2254,10 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2316,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2357,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -2372,10 +2372,10 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2416,7 +2416,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -2431,10 +2431,10 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2493,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2534,7 +2534,7 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -2552,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2652,30 +2652,27 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>44.83</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.699999999999999</v>
+        <v>48.28</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>55.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2684,30 +2681,27 @@
         <v>29</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>48.28</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8.1</v>
-      </c>
       <c r="I3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>51.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2716,25 +2710,22 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>48.28</v>
-      </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8.199999999999999</v>
+        <v>58.62</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>51.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2742,36 +2733,33 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>51.72</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>9.4</v>
-      </c>
       <c r="I5">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J5">
-        <v>48.28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -2780,25 +2768,25 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>55.17</v>
+      </c>
+      <c r="G6">
+        <v>44.83</v>
+      </c>
+      <c r="H6">
+        <v>6.7</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>58.62</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>41.38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2812,25 +2800,25 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>65.52</v>
+        <v>62.07</v>
       </c>
       <c r="G7">
-        <v>13.79</v>
+        <v>34.48</v>
       </c>
       <c r="H7">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>20.69</v>
+        <v>27.59</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2884,10 +2872,10 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2904,10 +2892,10 @@
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2924,10 +2912,10 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2944,30 +2932,30 @@
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920002</v>
+        <v>18330051920003</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2984,10 +2972,10 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3004,10 +2992,10 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3027,47 +3015,47 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920003</v>
+        <v>18330051920004</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920003</v>
+        <v>18330051920004</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3084,10 +3072,10 @@
         <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3104,47 +3092,47 @@
         <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920004</v>
+        <v>18330051920006</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920004</v>
+        <v>18330051920006</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
@@ -3152,22 +3140,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920004</v>
+        <v>18330051920006</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3187,87 +3175,87 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920006</v>
+        <v>18330051920009</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920006</v>
+        <v>18330051920009</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920006</v>
+        <v>18330051920009</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920006</v>
+        <v>18330051920009</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3284,67 +3272,67 @@
         <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920009</v>
+        <v>18330051920010</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920009</v>
+        <v>18330051920010</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920009</v>
+        <v>18330051920010</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
@@ -3352,59 +3340,59 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920009</v>
+        <v>18330051920010</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920009</v>
+        <v>18330051920014</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920010</v>
+        <v>18330051920014</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
@@ -3412,39 +3400,39 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920010</v>
+        <v>18330051920014</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920010</v>
+        <v>18330051920014</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -3452,119 +3440,119 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920010</v>
+        <v>18330051920015</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920010</v>
+        <v>18330051920015</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920014</v>
+        <v>18330051920015</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920014</v>
+        <v>18330051920015</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920014</v>
+        <v>18330051920016</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920014</v>
+        <v>18330051920016</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>50</v>
@@ -3572,199 +3560,199 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920014</v>
+        <v>18330051920016</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920015</v>
+        <v>18330051920016</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920015</v>
+        <v>18330051920016</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920015</v>
+        <v>18330051920018</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920015</v>
+        <v>18330051920018</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920015</v>
+        <v>18330051920018</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920016</v>
+        <v>18330051920018</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920016</v>
+        <v>18330051920019</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920016</v>
+        <v>18330051920019</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920016</v>
+        <v>18330051920019</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>50</v>
@@ -3772,19 +3760,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920016</v>
+        <v>18330051920019</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
@@ -3792,59 +3780,59 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920018</v>
+        <v>17330051920278</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920018</v>
+        <v>17330051920278</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>51</v>
@@ -3852,119 +3840,119 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920018</v>
+        <v>17330051920278</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920018</v>
+        <v>17330051920278</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920018</v>
+        <v>18330051920023</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920019</v>
+        <v>18330051920023</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920019</v>
+        <v>18330051920023</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920019</v>
+        <v>18330051920023</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
@@ -3972,199 +3960,199 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920019</v>
+        <v>18330051920038</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920019</v>
+        <v>18330051920038</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>17330051920278</v>
+        <v>18330051920038</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>17330051920278</v>
+        <v>18330051920038</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>17330051920278</v>
+        <v>18330051920024</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>17330051920278</v>
+        <v>18330051920024</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>17330051920278</v>
+        <v>18330051920024</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>17330051920278</v>
+        <v>18330051920024</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
         <v>49</v>
@@ -4172,159 +4160,159 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18330051920038</v>
+        <v>16330051920566</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18330051920038</v>
+        <v>16330051920566</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920038</v>
+        <v>16330051920566</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>18330051920038</v>
+        <v>16330051920566</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>18330051920038</v>
+        <v>18330051920026</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
         <v>49</v>
@@ -4332,59 +4320,59 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>18330051920024</v>
+        <v>18330051920026</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>18330051920024</v>
+        <v>18330051920026</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18330051920024</v>
+        <v>18330051920026</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
         <v>50</v>
@@ -4392,59 +4380,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>18330051920024</v>
+        <v>18330051920027</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>18330051920024</v>
+        <v>18330051920027</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>17330051920418</v>
+        <v>18330051920027</v>
       </c>
       <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
         <v>72</v>
       </c>
-      <c r="C80" t="s">
-        <v>97</v>
-      </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
         <v>49</v>
@@ -4452,79 +4440,79 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>17330051920418</v>
+        <v>18330051920027</v>
       </c>
       <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
         <v>72</v>
       </c>
-      <c r="C81" t="s">
-        <v>97</v>
-      </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>17330051920418</v>
+        <v>17330051920160</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>17330051920418</v>
+        <v>17330051920160</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>17330051920418</v>
+        <v>17330051920160</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
         <v>51</v>
@@ -4532,79 +4520,79 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>17330051920418</v>
+        <v>17330051920160</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>16330051920566</v>
+        <v>18330051920017</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>16330051920566</v>
+        <v>18330051920017</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>16330051920566</v>
+        <v>18330051920017</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
         <v>51</v>
@@ -4612,119 +4600,119 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>16330051920566</v>
+        <v>18330051920017</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>16330051920566</v>
+        <v>17330051920483</v>
       </c>
       <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
         <v>73</v>
       </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>18330051920026</v>
+        <v>17330051920483</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18330051920026</v>
+        <v>17330051920483</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18330051920026</v>
+        <v>17330051920483</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18330051920026</v>
+        <v>18330051920028</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
         <v>49</v>
@@ -4732,119 +4720,119 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>18330051920026</v>
+        <v>18330051920028</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>18330051920027</v>
+        <v>18330051920028</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18330051920027</v>
+        <v>18330051920028</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>18330051920027</v>
+        <v>18330051920028</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>18330051920027</v>
+        <v>18330051920037</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>18330051920027</v>
+        <v>18330051920037</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
         <v>51</v>
@@ -4852,36 +4840,36 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>17330051920160</v>
+        <v>18330051920037</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>17330051920160</v>
+        <v>18330051920037</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -4892,139 +4880,139 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>17330051920160</v>
+        <v>18330051920037</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>17330051920160</v>
+        <v>18330051920030</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>17330051920160</v>
+        <v>18330051920030</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>17330051920160</v>
+        <v>18330051920030</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>18330051920017</v>
+        <v>18330051920030</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>18330051920017</v>
+        <v>18330051920030</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>18330051920017</v>
+        <v>18330051920451</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
         <v>50</v>
@@ -5032,59 +5020,59 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>18330051920017</v>
+        <v>18330051920451</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>18330051920017</v>
+        <v>18330051920451</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>17330051920483</v>
+        <v>18330051920451</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" t="s">
         <v>51</v>
@@ -5092,179 +5080,179 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F114" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>18330051920028</v>
+        <v>18330051920036</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>18330051920028</v>
+        <v>18330051920036</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>18330051920028</v>
+        <v>18330051920036</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F120" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>18330051920028</v>
+        <v>18330051920036</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
         <v>50</v>
@@ -5272,702 +5260,82 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>18330051920028</v>
+        <v>18330051920034</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D122" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>18330051920028</v>
+        <v>18330051920034</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>18330051920037</v>
+        <v>18330051920034</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>18330051920037</v>
+        <v>18330051920034</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C125" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D125" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>18330051920037</v>
-      </c>
-      <c r="B126" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" t="s">
-        <v>102</v>
-      </c>
-      <c r="D126" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>18330051920037</v>
-      </c>
-      <c r="B127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" t="s">
-        <v>102</v>
-      </c>
-      <c r="D127" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>18330051920037</v>
-      </c>
-      <c r="B128" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" t="s">
-        <v>116</v>
-      </c>
-      <c r="E128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>18330051920037</v>
-      </c>
-      <c r="B129" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>18330051920030</v>
-      </c>
-      <c r="B130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" t="s">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>18330051920030</v>
-      </c>
-      <c r="B131" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" t="s">
-        <v>129</v>
-      </c>
-      <c r="E131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>18330051920030</v>
-      </c>
-      <c r="B132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>18330051920030</v>
-      </c>
-      <c r="B133" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" t="s">
-        <v>129</v>
-      </c>
-      <c r="E133" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>18330051920030</v>
-      </c>
-      <c r="B134" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>18330051920030</v>
-      </c>
-      <c r="B135" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" t="s">
-        <v>83</v>
-      </c>
-      <c r="D135" t="s">
-        <v>129</v>
-      </c>
-      <c r="E135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>18330051920451</v>
-      </c>
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" t="s">
-        <v>103</v>
-      </c>
-      <c r="D136" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>18330051920451</v>
-      </c>
-      <c r="B137" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>18330051920451</v>
-      </c>
-      <c r="B138" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" t="s">
-        <v>103</v>
-      </c>
-      <c r="D138" t="s">
-        <v>130</v>
-      </c>
-      <c r="E138" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>18330051920451</v>
-      </c>
-      <c r="B139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" t="s">
-        <v>103</v>
-      </c>
-      <c r="D139" t="s">
-        <v>130</v>
-      </c>
-      <c r="E139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>18330051920451</v>
-      </c>
-      <c r="B140" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" t="s">
-        <v>103</v>
-      </c>
-      <c r="D140" t="s">
-        <v>130</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>18330051920032</v>
-      </c>
-      <c r="B141" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" t="s">
-        <v>70</v>
-      </c>
-      <c r="D141" t="s">
-        <v>131</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>18330051920032</v>
-      </c>
-      <c r="B142" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" t="s">
-        <v>70</v>
-      </c>
-      <c r="D142" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>18330051920032</v>
-      </c>
-      <c r="B143" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" t="s">
-        <v>70</v>
-      </c>
-      <c r="D143" t="s">
-        <v>131</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>18330051920032</v>
-      </c>
-      <c r="B144" t="s">
-        <v>83</v>
-      </c>
-      <c r="C144" t="s">
-        <v>70</v>
-      </c>
-      <c r="D144" t="s">
-        <v>131</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>18330051920032</v>
-      </c>
-      <c r="B145" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" t="s">
-        <v>70</v>
-      </c>
-      <c r="D145" t="s">
-        <v>131</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>18330051920032</v>
-      </c>
-      <c r="B146" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" t="s">
-        <v>70</v>
-      </c>
-      <c r="D146" t="s">
-        <v>131</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>18330051920036</v>
-      </c>
-      <c r="B147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" t="s">
-        <v>104</v>
-      </c>
-      <c r="D147" t="s">
-        <v>132</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>18330051920036</v>
-      </c>
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" t="s">
-        <v>104</v>
-      </c>
-      <c r="D148" t="s">
-        <v>132</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>18330051920036</v>
-      </c>
-      <c r="B149" t="s">
-        <v>84</v>
-      </c>
-      <c r="C149" t="s">
-        <v>104</v>
-      </c>
-      <c r="D149" t="s">
-        <v>132</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>18330051920036</v>
-      </c>
-      <c r="B150" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" t="s">
-        <v>104</v>
-      </c>
-      <c r="D150" t="s">
-        <v>132</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>18330051920036</v>
-      </c>
-      <c r="B151" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" t="s">
-        <v>132</v>
-      </c>
-      <c r="E151" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>18330051920034</v>
-      </c>
-      <c r="B152" t="s">
-        <v>84</v>
-      </c>
-      <c r="C152" t="s">
-        <v>105</v>
-      </c>
-      <c r="D152" t="s">
-        <v>133</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>18330051920034</v>
-      </c>
-      <c r="B153" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" t="s">
-        <v>133</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>18330051920034</v>
-      </c>
-      <c r="B154" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" t="s">
-        <v>105</v>
-      </c>
-      <c r="D154" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>18330051920034</v>
-      </c>
-      <c r="B155" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" t="s">
-        <v>105</v>
-      </c>
-      <c r="D155" t="s">
-        <v>133</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>18330051920034</v>
-      </c>
-      <c r="B156" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" t="s">
-        <v>133</v>
-      </c>
-      <c r="E156" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6018,72 +5386,72 @@
         <v>110</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>17330051920418</v>
+        <v>18330051920016</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920030</v>
+        <v>17330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920032</v>
+        <v>17330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920016</v>
+        <v>18330051920028</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6091,16 +5459,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>17330051920278</v>
+        <v>18330051920037</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -6108,16 +5476,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920023</v>
+        <v>18330051920030</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -6125,16 +5493,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>16330051920566</v>
+        <v>18330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -6142,53 +5510,53 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>17330051920483</v>
+        <v>18330051920002</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920037</v>
+        <v>18330051920003</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920034</v>
+        <v>18330051920004</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6210,16 +5578,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920028</v>
+        <v>18330051920010</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -6239,262 +5607,262 @@
         <v>112</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920026</v>
+        <v>18330051920015</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920036</v>
+        <v>18330051920018</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17330051920160</v>
+        <v>18330051920019</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920002</v>
+        <v>18330051920023</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920003</v>
+        <v>18330051920038</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920004</v>
+        <v>18330051920024</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920010</v>
+        <v>16330051920566</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920015</v>
+        <v>18330051920026</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920018</v>
+        <v>18330051920027</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920019</v>
+        <v>17330051920160</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920038</v>
+        <v>18330051920017</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920024</v>
+        <v>17330051920483</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920027</v>
+        <v>18330051920451</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920017</v>
+        <v>18330051920036</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920451</v>
+        <v>18330051920034</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6534,7 +5902,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -167,19 +167,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Velasco Sanchez David</t>
   </si>
   <si>
-    <t>Hernández Mendoza Delfina</t>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
   </si>
   <si>
     <t>Bautista Sarao Eutiquio</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Duran Amezcua Maria Angelica</t>
   </si>
   <si>
     <t>NC</t>
@@ -903,13 +903,13 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -962,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1021,13 +1021,13 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1062,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1080,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1198,13 +1198,13 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1257,10 +1257,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1316,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1357,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1434,13 +1434,13 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1493,13 +1493,13 @@
         <v>9</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1552,13 +1552,13 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1729,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1788,13 +1788,13 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1888,13 +1888,13 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -1909,10 +1909,10 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -1950,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1968,10 +1968,10 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2024,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -2086,10 +2086,10 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -2145,10 +2145,10 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2183,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -2319,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -2481,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -2496,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2537,13 +2537,13 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>-1</v>
@@ -2558,10 +2558,10 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2681,27 +2681,30 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>48.28</v>
+      </c>
+      <c r="G3">
+        <v>51.72</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
+      </c>
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>48.28</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2710,88 +2713,94 @@
         <v>29</v>
       </c>
       <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>55.17</v>
+      </c>
+      <c r="G4">
+        <v>44.83</v>
+      </c>
+      <c r="H4">
+        <v>6.7</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>58.62</v>
-      </c>
-      <c r="I4">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>62.07</v>
       </c>
       <c r="G5">
-        <v>51.72</v>
+        <v>34.48</v>
+      </c>
+      <c r="H5">
+        <v>6.7</v>
       </c>
       <c r="I5">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>55.17</v>
+        <v>65.52</v>
       </c>
       <c r="G6">
-        <v>44.83</v>
+        <v>6.9</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -2800,25 +2809,25 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>62.07</v>
+        <v>68.97</v>
       </c>
       <c r="G7">
-        <v>34.48</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>27.59</v>
+        <v>31.03</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2875,24 +2884,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920002</v>
+        <v>18330051920003</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -2900,139 +2909,139 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920002</v>
+        <v>18330051920004</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920002</v>
+        <v>18330051920006</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920003</v>
+        <v>18330051920009</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920003</v>
+        <v>18330051920009</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920003</v>
+        <v>18330051920009</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920003</v>
+        <v>18330051920009</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920004</v>
+        <v>18330051920009</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -3040,79 +3049,79 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920004</v>
+        <v>18330051920010</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920004</v>
+        <v>18330051920014</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920004</v>
+        <v>18330051920014</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920006</v>
+        <v>18330051920015</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -3120,99 +3129,99 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920006</v>
+        <v>18330051920016</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920006</v>
+        <v>18330051920016</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920006</v>
+        <v>18330051920016</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920009</v>
+        <v>18330051920016</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920009</v>
+        <v>18330051920016</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -3220,39 +3229,39 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920009</v>
+        <v>18330051920018</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920009</v>
+        <v>18330051920019</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -3260,99 +3269,99 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920009</v>
+        <v>17330051920278</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920010</v>
+        <v>17330051920278</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920010</v>
+        <v>17330051920278</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920010</v>
+        <v>17330051920278</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920010</v>
+        <v>17330051920278</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
@@ -3360,219 +3369,219 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920014</v>
+        <v>18330051920023</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920014</v>
+        <v>18330051920023</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920014</v>
+        <v>18330051920023</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920014</v>
+        <v>18330051920023</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920015</v>
+        <v>18330051920038</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920015</v>
+        <v>18330051920024</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920015</v>
+        <v>17330051920418</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920015</v>
+        <v>17330051920418</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920016</v>
+        <v>17330051920418</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920016</v>
+        <v>17330051920418</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920016</v>
+        <v>17330051920418</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -3580,159 +3589,159 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920016</v>
+        <v>16330051920566</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920016</v>
+        <v>16330051920566</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920018</v>
+        <v>18330051920026</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920018</v>
+        <v>18330051920026</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920018</v>
+        <v>18330051920027</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920018</v>
+        <v>17330051920160</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920019</v>
+        <v>17330051920160</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920019</v>
+        <v>18330051920017</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
@@ -3740,319 +3749,319 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920019</v>
+        <v>17330051920483</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920019</v>
+        <v>17330051920483</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>17330051920278</v>
+        <v>17330051920483</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>17330051920278</v>
+        <v>17330051920483</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>17330051920278</v>
+        <v>18330051920028</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>17330051920278</v>
+        <v>18330051920028</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>17330051920278</v>
+        <v>18330051920028</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920023</v>
+        <v>18330051920037</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920023</v>
+        <v>18330051920037</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920023</v>
+        <v>18330051920037</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920023</v>
+        <v>18330051920037</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920038</v>
+        <v>18330051920037</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920038</v>
+        <v>18330051920030</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920038</v>
+        <v>18330051920030</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920038</v>
+        <v>18330051920030</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920024</v>
+        <v>18330051920030</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -4060,19 +4069,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920024</v>
+        <v>18330051920030</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
         <v>50</v>
@@ -4080,99 +4089,99 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920024</v>
+        <v>18330051920451</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920024</v>
+        <v>18330051920032</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>17330051920418</v>
+        <v>18330051920032</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>17330051920418</v>
+        <v>18330051920032</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>17330051920418</v>
+        <v>18330051920032</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
@@ -4180,1162 +4189,82 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>17330051920418</v>
+        <v>18330051920032</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>17330051920418</v>
+        <v>18330051920036</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>16330051920566</v>
+        <v>18330051920034</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>16330051920566</v>
+        <v>18330051920034</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>16330051920566</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>16330051920566</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920026</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920026</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920026</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920026</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920027</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920027</v>
-      </c>
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920027</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920027</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>17330051920160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>17330051920160</v>
-      </c>
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D83" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>17330051920160</v>
-      </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>17330051920160</v>
-      </c>
-      <c r="B85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920017</v>
-      </c>
-      <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920017</v>
-      </c>
-      <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920017</v>
-      </c>
-      <c r="B88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920017</v>
-      </c>
-      <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>17330051920483</v>
-      </c>
-      <c r="B90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>17330051920483</v>
-      </c>
-      <c r="B91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>17330051920483</v>
-      </c>
-      <c r="B92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>17330051920483</v>
-      </c>
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920028</v>
-      </c>
-      <c r="B94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920028</v>
-      </c>
-      <c r="B95" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920028</v>
-      </c>
-      <c r="B96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920028</v>
-      </c>
-      <c r="B97" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920028</v>
-      </c>
-      <c r="B98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920037</v>
-      </c>
-      <c r="B99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920037</v>
-      </c>
-      <c r="B100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920037</v>
-      </c>
-      <c r="B101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" t="s">
-        <v>116</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920037</v>
-      </c>
-      <c r="B102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D102" t="s">
-        <v>116</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920037</v>
-      </c>
-      <c r="B103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920030</v>
-      </c>
-      <c r="B104" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" t="s">
-        <v>129</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920030</v>
-      </c>
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" t="s">
-        <v>129</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920030</v>
-      </c>
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920030</v>
-      </c>
-      <c r="B107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" t="s">
-        <v>129</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920030</v>
-      </c>
-      <c r="B108" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920451</v>
-      </c>
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920451</v>
-      </c>
-      <c r="B110" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D110" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920451</v>
-      </c>
-      <c r="B111" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920451</v>
-      </c>
-      <c r="B112" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D112" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920032</v>
-      </c>
-      <c r="B113" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920032</v>
-      </c>
-      <c r="B114" t="s">
-        <v>83</v>
-      </c>
-      <c r="C114" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920032</v>
-      </c>
-      <c r="B115" t="s">
-        <v>83</v>
-      </c>
-      <c r="C115" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920032</v>
-      </c>
-      <c r="B116" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920032</v>
-      </c>
-      <c r="B117" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" t="s">
-        <v>70</v>
-      </c>
-      <c r="D117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920036</v>
-      </c>
-      <c r="B118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920036</v>
-      </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D119" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920036</v>
-      </c>
-      <c r="B120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>18330051920036</v>
-      </c>
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" t="s">
-        <v>132</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>18330051920034</v>
-      </c>
-      <c r="B122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" t="s">
-        <v>105</v>
-      </c>
-      <c r="D122" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>18330051920034</v>
-      </c>
-      <c r="B123" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" t="s">
-        <v>105</v>
-      </c>
-      <c r="D123" t="s">
-        <v>133</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>18330051920034</v>
-      </c>
-      <c r="B124" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124" t="s">
-        <v>133</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>18330051920034</v>
-      </c>
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125" t="s">
-        <v>133</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5442,16 +4371,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920028</v>
+        <v>18330051920037</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5459,16 +4388,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920037</v>
+        <v>18330051920030</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5476,16 +4405,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920030</v>
+        <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5493,33 +4422,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920032</v>
+        <v>18330051920023</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920002</v>
+        <v>17330051920483</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -5527,342 +4456,342 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920003</v>
+        <v>18330051920028</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920004</v>
+        <v>18330051920014</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920006</v>
+        <v>16330051920566</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920010</v>
+        <v>18330051920026</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920014</v>
+        <v>17330051920160</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920015</v>
+        <v>18330051920034</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920018</v>
+        <v>18330051920002</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920019</v>
+        <v>18330051920003</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920023</v>
+        <v>18330051920004</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920038</v>
+        <v>18330051920006</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920024</v>
+        <v>18330051920010</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16330051920566</v>
+        <v>18330051920015</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920026</v>
+        <v>18330051920018</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920027</v>
+        <v>18330051920019</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>17330051920160</v>
+        <v>18330051920038</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920017</v>
+        <v>18330051920024</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>17330051920483</v>
+        <v>18330051920027</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920451</v>
+        <v>18330051920017</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920036</v>
+        <v>18330051920451</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920034</v>
+        <v>18330051920036</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5872,7 +4801,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5905,6 +4834,397 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>17330051920160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>17330051920160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920038</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920027</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920451</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920036</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -167,12 +167,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
     <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
@@ -194,6 +194,144 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DEL CAMPO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>EMANUEL</t>
+  </si>
+  <si>
+    <t>CARLOS ADRIAN</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>EDDER GUSTAVO</t>
+  </si>
+  <si>
+    <t>BRAULIO</t>
+  </si>
+  <si>
+    <t>RICARDO MOISES</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>JOSE ARTURO</t>
+  </si>
+  <si>
+    <t>JULIAN ALDAHIR</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>ISAI</t>
+  </si>
+  <si>
     <t>ANASTACIO</t>
   </si>
   <si>
@@ -203,141 +341,54 @@
     <t>BAEZ</t>
   </si>
   <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
     <t>COCOTLE</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
     <t>COXCAHUA</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>GALAN</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>NAVARRO</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>CUAQUEHUA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>TZITZIHUA</t>
   </si>
   <si>
     <t>CONSTANTINO</t>
   </si>
   <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>DAMIAN</t>
   </si>
   <si>
     <t>MOLOHUA</t>
   </si>
   <si>
-    <t>DEL CAMPO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>ALVARADO</t>
   </si>
   <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
     <t>DIEGO APOLINAR</t>
   </si>
   <si>
@@ -347,79 +398,28 @@
     <t>CRISTIAN MAURICIO</t>
   </si>
   <si>
-    <t>EMANUEL</t>
-  </si>
-  <si>
-    <t>CARLOS ADRIAN</t>
-  </si>
-  <si>
     <t>RIGOBERTO</t>
   </si>
   <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
     <t>MARIA TERESA</t>
   </si>
   <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
     <t>HUMBERTO</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>EDDER GUSTAVO</t>
-  </si>
-  <si>
-    <t>BRAULIO</t>
-  </si>
-  <si>
     <t>IRAIS</t>
   </si>
   <si>
     <t>AZAEL</t>
   </si>
   <si>
-    <t>RICARDO MOISES</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL</t>
-  </si>
-  <si>
     <t>JULIO CESAR</t>
   </si>
   <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
     <t>MARIA FERNANDA</t>
   </si>
   <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>JOSE ARTURO</t>
-  </si>
-  <si>
     <t>YAHIR ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JULIAN ALDAHIR</t>
-  </si>
-  <si>
-    <t>CARLOS MANUEL</t>
-  </si>
-  <si>
-    <t>ISAI</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>6</v>
@@ -2033,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -2328,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2652,27 +2652,30 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>48.28</v>
+      </c>
+      <c r="G2">
+        <v>51.72</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
+      </c>
+      <c r="I2">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
         <v>48.28</v>
-      </c>
-      <c r="I2">
-        <v>29</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2684,22 +2687,22 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>48.28</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
         <v>51.72</v>
-      </c>
-      <c r="H3">
-        <v>7.8</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>48.28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2837,7 +2840,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2869,79 +2872,79 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920002</v>
+        <v>18330051920006</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920003</v>
+        <v>18330051920009</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920004</v>
+        <v>18330051920009</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920006</v>
+        <v>18330051920009</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -2952,13 +2955,13 @@
         <v>18330051920009</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -2972,13 +2975,13 @@
         <v>18330051920009</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2989,99 +2992,99 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920009</v>
+        <v>18330051920014</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920009</v>
+        <v>18330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920009</v>
+        <v>18330051920016</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920010</v>
+        <v>18330051920016</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920014</v>
+        <v>18330051920016</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -3089,19 +3092,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920014</v>
+        <v>18330051920016</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -3109,96 +3112,96 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920015</v>
+        <v>18330051920016</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -3209,16 +3212,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -3229,99 +3232,99 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920018</v>
+        <v>18330051920023</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920019</v>
+        <v>18330051920023</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>17330051920278</v>
+        <v>18330051920023</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>17330051920278</v>
+        <v>18330051920023</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>17330051920278</v>
+        <v>17330051920418</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3329,99 +3332,99 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>17330051920278</v>
+        <v>17330051920418</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>117</v>
-      </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>17330051920278</v>
+        <v>17330051920418</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920023</v>
+        <v>17330051920418</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920023</v>
+        <v>16330051920566</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
@@ -3429,39 +3432,39 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920023</v>
+        <v>16330051920566</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
         <v>94</v>
       </c>
-      <c r="D30" t="s">
-        <v>118</v>
-      </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920038</v>
+        <v>18330051920026</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>119</v>
-      </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -3469,19 +3472,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920024</v>
+        <v>17330051920160</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
         <v>96</v>
       </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -3489,19 +3492,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>17330051920418</v>
+        <v>17330051920483</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -3509,39 +3512,39 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>17330051920418</v>
+        <v>17330051920483</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="D34" t="s">
-        <v>121</v>
-      </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>17330051920418</v>
+        <v>17330051920483</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
         <v>97</v>
       </c>
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>50</v>
@@ -3549,119 +3552,119 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>17330051920418</v>
+        <v>17330051920483</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
         <v>97</v>
       </c>
-      <c r="D36" t="s">
-        <v>121</v>
-      </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>17330051920418</v>
+        <v>18330051920028</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>16330051920566</v>
+        <v>18330051920028</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>16330051920566</v>
+        <v>18330051920028</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="D39" t="s">
-        <v>122</v>
-      </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920026</v>
+        <v>18330051920037</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
         <v>99</v>
       </c>
-      <c r="D40" t="s">
-        <v>123</v>
-      </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920026</v>
+        <v>18330051920037</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
         <v>99</v>
       </c>
-      <c r="D41" t="s">
-        <v>123</v>
-      </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
@@ -3669,99 +3672,99 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920027</v>
+        <v>18330051920037</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>17330051920160</v>
+        <v>18330051920037</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>17330051920160</v>
+        <v>18330051920037</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920017</v>
+        <v>18330051920030</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>17330051920483</v>
+        <v>18330051920030</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -3769,19 +3772,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>17330051920483</v>
+        <v>18330051920030</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
@@ -3789,482 +3792,202 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>17330051920483</v>
+        <v>18330051920030</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>17330051920483</v>
+        <v>18330051920030</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920028</v>
+        <v>18330051920032</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920028</v>
+        <v>18330051920032</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
       </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920028</v>
+        <v>18330051920032</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920037</v>
+        <v>18330051920032</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920037</v>
+        <v>18330051920032</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920037</v>
+        <v>18330051920036</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
         <v>102</v>
       </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920037</v>
+        <v>18330051920034</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920037</v>
+        <v>18330051920034</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920030</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920030</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920030</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920030</v>
-      </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920030</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920451</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920032</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920032</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920032</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920032</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920032</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920036</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920034</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920034</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4029,13 @@
         <v>18330051920009</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4323,13 +4046,13 @@
         <v>18330051920016</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4340,13 +4063,13 @@
         <v>17330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4357,13 +4080,13 @@
         <v>17330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4374,13 +4097,13 @@
         <v>18330051920037</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4391,13 +4114,13 @@
         <v>18330051920030</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4408,13 +4131,13 @@
         <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -4425,13 +4148,13 @@
         <v>18330051920023</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4442,13 +4165,13 @@
         <v>17330051920483</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -4459,13 +4182,13 @@
         <v>18330051920028</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4476,13 +4199,13 @@
         <v>18330051920014</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4493,13 +4216,13 @@
         <v>16330051920566</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4507,16 +4230,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920026</v>
+        <v>18330051920034</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4524,50 +4247,50 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>17330051920160</v>
+        <v>18330051920006</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920034</v>
+        <v>18330051920026</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920002</v>
+        <v>17330051920160</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4575,16 +4298,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920003</v>
+        <v>18330051920036</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4592,206 +4315,206 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920004</v>
+        <v>18330051920002</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920006</v>
+        <v>18330051920003</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920010</v>
+        <v>18330051920004</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920015</v>
+        <v>18330051920010</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920018</v>
+        <v>18330051920015</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920019</v>
+        <v>18330051920018</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920038</v>
+        <v>18330051920019</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920024</v>
+        <v>18330051920038</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920027</v>
+        <v>18330051920024</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920017</v>
+        <v>18330051920027</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920451</v>
+        <v>18330051920017</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920036</v>
+        <v>18330051920451</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +4524,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4836,42 +4559,42 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17330051920160</v>
+        <v>18330051920026</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>17330051920160</v>
+        <v>18330051920026</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -4882,22 +4605,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920017</v>
+        <v>18330051920006</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -4905,323 +4628,70 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920017</v>
+        <v>17330051920160</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920002</v>
+        <v>18330051920017</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920003</v>
+        <v>18330051920036</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920010</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920015</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920038</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920024</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920027</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920451</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920036</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -2904,10 +2904,10 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2924,10 +2924,10 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2944,10 +2944,10 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2964,10 +2964,10 @@
         <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2984,10 +2984,10 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3164,10 +3164,10 @@
         <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3224,10 +3224,10 @@
         <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3324,10 +3324,10 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3344,10 +3344,10 @@
         <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3364,10 +3364,10 @@
         <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3384,10 +3384,10 @@
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3424,10 +3424,10 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3444,10 +3444,10 @@
         <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3504,7 +3504,7 @@
         <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -3524,7 +3524,7 @@
         <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
@@ -3744,10 +3744,10 @@
         <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3784,10 +3784,10 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3804,10 +3804,10 @@
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3824,10 +3824,10 @@
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3844,10 +3844,10 @@
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3864,10 +3864,10 @@
         <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3904,10 +3904,10 @@
         <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3924,10 +3924,10 @@
         <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6">

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -2964,10 +2964,10 @@
         <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2984,10 +2984,10 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/grupos/6AEV - Estadisticos 2020.xlsx
+++ b/grupos/6AEV - Estadisticos 2020.xlsx
@@ -167,7 +167,7 @@
     <t>Por_Blancos</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Hernández Mendoza Delfina</t>
@@ -176,7 +176,7 @@
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Bautista Sarao Eutiquio</t>
